--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1074957.622279121</v>
+        <v>1070652.956836133</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2160491.204006264</v>
+        <v>2160491.204006263</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6513032.961632384</v>
+        <v>6513032.961632385</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8127393.68222083</v>
+        <v>8127393.682220831</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -676,10 +676,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>235.6153630097367</v>
+        <v>245.4942237163185</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>401.6682584110919</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>340.190476347066</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -1116,7 +1116,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>237.2256258264556</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>240.20623200167</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>97.4805405212544</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -1438,7 +1438,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>322.2565267789986</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1624,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>54.87388890514275</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>167.9683453503091</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>89.2164636659316</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>398.2465651062576</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.8313869843473</v>
       </c>
       <c r="H17" t="n">
-        <v>318.7966226942565</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>14.9359308468709</v>
+        <v>129.2532318950163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>160.296822096844</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.179222991945</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -1940,10 +1940,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H18" t="n">
-        <v>86.38229489247487</v>
+        <v>86.38229489247486</v>
       </c>
       <c r="I18" t="n">
-        <v>45.21383710579057</v>
+        <v>45.21383710579055</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.04250582871811</v>
+        <v>17.04250582871806</v>
       </c>
       <c r="S18" t="n">
         <v>131.5962913112782</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>118.6333759660429</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>191.0841449491102</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>146.8834918809614</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5795167355755</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2098,10 +2098,10 @@
         <v>408.8313869843473</v>
       </c>
       <c r="H20" t="n">
-        <v>318.7966226942565</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>129.2532318950163</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>25.06600571167706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>340.3816641231911</v>
       </c>
       <c r="X20" t="n">
-        <v>9.381551050970737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2177,10 +2177,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H21" t="n">
-        <v>86.38229489247487</v>
+        <v>86.38229489247486</v>
       </c>
       <c r="I21" t="n">
-        <v>45.21383710579057</v>
+        <v>45.21383710579055</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.0425058287181</v>
+        <v>17.04250582871806</v>
       </c>
       <c r="S21" t="n">
         <v>131.5962913112782</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>199.2264929501066</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>232.9790380929424</v>
+        <v>178.4635246134987</v>
       </c>
       <c r="U22" t="n">
-        <v>277.7545756216224</v>
+        <v>282.5795167355755</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0.9752921632016978</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2335,10 +2335,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.6444459974996</v>
@@ -2377,7 +2377,7 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>295.3218417406955</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I24" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>154.4041330542736</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3691528057782</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>113.8693593270194</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>22.43598574674632</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>350.7713897517015</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I27" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>154.3305751071528</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5697534131281</v>
@@ -2775,7 +2775,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>160.583099192385</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>363.5122727464508</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>241.6127627580597</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2891,7 +2891,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>156.8716112101083</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>38.91286352692092</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5697534131281</v>
@@ -3012,7 +3012,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3046,7 +3046,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>289.2899540946809</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>43.40700832500578</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597849</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124798</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.3213823812268</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>112.3002456454842</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3286,7 +3286,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270195</v>
+        <v>18.17025101779604</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>311.1243664934846</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597849</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124798</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66783807881613</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>137.8819254140345</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3489,10 +3489,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>321.563270923716</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3520,7 +3520,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>113.8693593270195</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>67.20456487961698</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597849</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.934591277636359</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>76.66783807881613</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>113.1350225007018</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3757,10 +3757,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>181.0739242066371</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597849</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124798</v>
@@ -3957,10 +3957,10 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>107.7731453049667</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>124.9506916257168</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>348.9017182559955</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3991,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>181.0739242066371</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>119.1064492346773</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>76.66783807881636</v>
       </c>
       <c r="U46" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4203,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2449.708909928978</v>
+        <v>1935.909311416476</v>
       </c>
       <c r="C2" t="n">
-        <v>2056.533408431909</v>
+        <v>1542.733809919407</v>
       </c>
       <c r="D2" t="n">
-        <v>1671.092279648577</v>
+        <v>1542.733809919407</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.508754765121</v>
+        <v>1140.150285035951</v>
       </c>
       <c r="F2" t="n">
-        <v>851.6143162950988</v>
+        <v>723.2558465659291</v>
       </c>
       <c r="G2" t="n">
-        <v>438.4515607831019</v>
+        <v>310.0930910539323</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U2" t="n">
-        <v>2850.203655640375</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V2" t="n">
-        <v>2850.203655640375</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="W2" t="n">
-        <v>2850.203655640375</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="X2" t="n">
-        <v>2850.203655640375</v>
+        <v>2336.404057127873</v>
       </c>
       <c r="Y2" t="n">
-        <v>2850.203655640375</v>
+        <v>2336.404057127873</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>787.6208502301403</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>1107.359996292367</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L3" t="n">
-        <v>1590.92608219068</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M3" t="n">
-        <v>1590.92608219068</v>
+        <v>2331.812714037089</v>
       </c>
       <c r="N3" t="n">
-        <v>1949.449642343508</v>
+        <v>2355.071011059905</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.969924934489</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="P3" t="n">
         <v>2871.591293650886</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4518,22 +4518,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>802.6419131733114</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>802.6419131733114</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>802.6419131733114</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1736.603065600784</v>
+        <v>1409.378026504173</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.427564103715</v>
+        <v>1016.202525007103</v>
       </c>
       <c r="D5" t="n">
-        <v>1343.427564103715</v>
+        <v>1016.202525007103</v>
       </c>
       <c r="E5" t="n">
-        <v>1343.427564103715</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="F5" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H5" t="n">
         <v>200.4562446116507</v>
@@ -4594,25 +4594,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T5" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U5" t="n">
-        <v>2850.203655640375</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V5" t="n">
-        <v>2508.096846343894</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W5" t="n">
-        <v>2137.097811312181</v>
+        <v>2595.816086361912</v>
       </c>
       <c r="X5" t="n">
-        <v>2137.097811312181</v>
+        <v>2206.363481294969</v>
       </c>
       <c r="Y5" t="n">
-        <v>2137.097811312181</v>
+        <v>1809.87277221557</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4752,16 +4752,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>849.2563164731562</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>613.5372646413903</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U7" t="n">
-        <v>328.0984728832913</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W7" t="n">
         <v>62.11912770411553</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2073.376476849992</v>
+        <v>1497.252040723687</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.200975352922</v>
+        <v>1104.076539226617</v>
       </c>
       <c r="D8" t="n">
-        <v>1294.75984656959</v>
+        <v>718.6354104432849</v>
       </c>
       <c r="E8" t="n">
-        <v>892.1763216861347</v>
+        <v>718.6354104432849</v>
       </c>
       <c r="F8" t="n">
-        <v>475.2818832161124</v>
+        <v>301.7409719732626</v>
       </c>
       <c r="G8" t="n">
         <v>62.11912770411553</v>
@@ -4831,25 +4831,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.956385205776</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.956385205776</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="X8" t="n">
-        <v>2716.503780138833</v>
+        <v>2294.237495514482</v>
       </c>
       <c r="Y8" t="n">
-        <v>2473.871222561389</v>
+        <v>1897.746786435084</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4995,19 +4995,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593.6317461087201</v>
+        <v>1039.898925960894</v>
       </c>
       <c r="C11" t="n">
-        <v>200.4562446116507</v>
+        <v>1039.898925960894</v>
       </c>
       <c r="D11" t="n">
-        <v>200.4562446116507</v>
+        <v>1039.898925960894</v>
       </c>
       <c r="E11" t="n">
-        <v>200.4562446116507</v>
+        <v>1039.898925960894</v>
       </c>
       <c r="F11" t="n">
-        <v>200.4562446116507</v>
+        <v>623.0044874908716</v>
       </c>
       <c r="G11" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H11" t="n">
         <v>200.4562446116507</v>
@@ -5041,19 +5041,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129441</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129883</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>2226.336985818633</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.638135031227</v>
+        <v>1836.88438075169</v>
       </c>
       <c r="Y11" t="n">
-        <v>994.1264918201171</v>
+        <v>1440.393671672291</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5229,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2535.796644191037</v>
+        <v>1743.363518677915</v>
       </c>
       <c r="C14" t="n">
-        <v>2142.621142693967</v>
+        <v>1350.188017180845</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1350.188017180845</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>947.6044922973899</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>530.7100538273677</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>117.5472983153708</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>117.5472983153708</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5308,22 +5308,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W14" t="n">
-        <v>3105.956385205776</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="X14" t="n">
-        <v>3105.956385205776</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="Y14" t="n">
-        <v>2936.291389902433</v>
+        <v>2143.858264389312</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>62.11912770411552</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411552</v>
@@ -5463,25 +5463,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>670.6324263616197</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>670.6324263616197</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>404.6530811824439</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>404.6530811824439</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>404.6530811824439</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>404.6530811824439</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>797.0156821625046</v>
+        <v>1808.284692343429</v>
       </c>
       <c r="C17" t="n">
-        <v>403.8401806654352</v>
+        <v>1415.109190846359</v>
       </c>
       <c r="D17" t="n">
-        <v>403.8401806654352</v>
+        <v>1415.109190846359</v>
       </c>
       <c r="E17" t="n">
-        <v>403.8401806654352</v>
+        <v>1012.525665962904</v>
       </c>
       <c r="F17" t="n">
-        <v>403.8401806654352</v>
+        <v>610.2564082798152</v>
       </c>
       <c r="G17" t="n">
-        <v>403.8401806654352</v>
+        <v>197.295411325929</v>
       </c>
       <c r="H17" t="n">
-        <v>81.82339006517611</v>
+        <v>197.295411325929</v>
       </c>
       <c r="I17" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J17" t="n">
-        <v>228.1696018523344</v>
+        <v>228.1696018523346</v>
       </c>
       <c r="K17" t="n">
-        <v>612.3056806068512</v>
+        <v>612.3056806068519</v>
       </c>
       <c r="L17" t="n">
-        <v>1136.831389612604</v>
+        <v>1136.831389612605</v>
       </c>
       <c r="M17" t="n">
-        <v>1717.554329029429</v>
+        <v>1717.55432902943</v>
       </c>
       <c r="N17" t="n">
-        <v>2280.649490936952</v>
+        <v>2280.649490936953</v>
       </c>
       <c r="O17" t="n">
-        <v>2754.006657546707</v>
+        <v>2754.006657546708</v>
       </c>
       <c r="P17" t="n">
-        <v>3130.629921188927</v>
+        <v>3130.629921188929</v>
       </c>
       <c r="Q17" t="n">
-        <v>3336.829561497649</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="R17" t="n">
-        <v>3336.829561497649</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="S17" t="n">
-        <v>3174.913579581645</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="T17" t="n">
-        <v>2952.29617522919</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="U17" t="n">
-        <v>2696.559586348438</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="V17" t="n">
-        <v>2354.452777051956</v>
+        <v>2994.722752201168</v>
       </c>
       <c r="W17" t="n">
-        <v>1983.453742020244</v>
+        <v>2994.722752201168</v>
       </c>
       <c r="X17" t="n">
-        <v>1594.0011369533</v>
+        <v>2605.270147134225</v>
       </c>
       <c r="Y17" t="n">
-        <v>1197.510427873902</v>
+        <v>2208.779438054826</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>319.61384466942</v>
       </c>
       <c r="G18" t="n">
-        <v>199.6619770867868</v>
+        <v>199.6619770867867</v>
       </c>
       <c r="H18" t="n">
         <v>112.4071337610546</v>
       </c>
       <c r="I18" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J18" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="K18" t="n">
-        <v>66.73659122995298</v>
+        <v>403.5604616506785</v>
       </c>
       <c r="L18" t="n">
-        <v>573.2751974142072</v>
+        <v>910.0990678349328</v>
       </c>
       <c r="M18" t="n">
-        <v>1227.854694670801</v>
+        <v>1014.064232919143</v>
       </c>
       <c r="N18" t="n">
-        <v>1911.150037468796</v>
+        <v>1697.359575717138</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.055152615259</v>
+        <v>1697.359575717138</v>
       </c>
       <c r="P18" t="n">
-        <v>2371.055152615259</v>
+        <v>2123.184511511797</v>
       </c>
       <c r="Q18" t="n">
         <v>2371.055152615259</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>236.9417091639638</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="C19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="D19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="E19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="F19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="G19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="H19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="I19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="K19" t="n">
-        <v>158.8770705324134</v>
+        <v>158.8770705324135</v>
       </c>
       <c r="L19" t="n">
-        <v>336.1921232544487</v>
+        <v>336.1921232544489</v>
       </c>
       <c r="M19" t="n">
-        <v>536.3879794294575</v>
+        <v>536.3879794294578</v>
       </c>
       <c r="N19" t="n">
-        <v>733.1512786480426</v>
+        <v>733.1512786480431</v>
       </c>
       <c r="O19" t="n">
-        <v>908.3935224516662</v>
+        <v>908.3935224516667</v>
       </c>
       <c r="P19" t="n">
-        <v>1038.997665514103</v>
+        <v>1038.997665514104</v>
       </c>
       <c r="Q19" t="n">
-        <v>1049.847357282533</v>
+        <v>1049.847357282534</v>
       </c>
       <c r="R19" t="n">
-        <v>930.0156643875405</v>
+        <v>1049.847357282534</v>
       </c>
       <c r="S19" t="n">
-        <v>737.0013765601565</v>
+        <v>1049.847357282534</v>
       </c>
       <c r="T19" t="n">
-        <v>737.0013765601565</v>
+        <v>901.4801937664113</v>
       </c>
       <c r="U19" t="n">
-        <v>737.0013765601565</v>
+        <v>616.0463384779512</v>
       </c>
       <c r="V19" t="n">
-        <v>471.0220313809807</v>
+        <v>350.0669932987753</v>
       </c>
       <c r="W19" t="n">
-        <v>471.0220313809807</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="X19" t="n">
-        <v>236.9417091639638</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="Y19" t="n">
-        <v>236.9417091639638</v>
+        <v>66.73659122995299</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2530.367792513954</v>
+        <v>1692.351053034386</v>
       </c>
       <c r="C20" t="n">
-        <v>2137.192291016884</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="D20" t="n">
-        <v>1751.751162233552</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="E20" t="n">
-        <v>1349.167637350096</v>
+        <v>896.5920266538615</v>
       </c>
       <c r="F20" t="n">
-        <v>932.2731988800742</v>
+        <v>479.6975881838392</v>
       </c>
       <c r="G20" t="n">
-        <v>519.3122019261881</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="H20" t="n">
-        <v>197.295411325929</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="I20" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="J20" t="n">
         <v>228.1696018523346</v>
       </c>
       <c r="K20" t="n">
-        <v>612.3056806068518</v>
+        <v>612.3056806068519</v>
       </c>
       <c r="L20" t="n">
         <v>1136.831389612605</v>
       </c>
       <c r="M20" t="n">
-        <v>1717.554329029429</v>
+        <v>1717.55432902943</v>
       </c>
       <c r="N20" t="n">
         <v>2280.649490936953</v>
       </c>
       <c r="O20" t="n">
-        <v>2754.006657546708</v>
+        <v>2754.006657546709</v>
       </c>
       <c r="P20" t="n">
-        <v>3130.629921188928</v>
+        <v>3130.629921188929</v>
       </c>
       <c r="Q20" t="n">
-        <v>3336.829561497649</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="R20" t="n">
-        <v>3336.829561497649</v>
+        <v>3311.510363809087</v>
       </c>
       <c r="S20" t="n">
-        <v>3336.829561497649</v>
+        <v>3311.510363809087</v>
       </c>
       <c r="T20" t="n">
-        <v>3336.829561497649</v>
+        <v>3088.892959456633</v>
       </c>
       <c r="U20" t="n">
-        <v>3336.829561497649</v>
+        <v>2833.15637057588</v>
       </c>
       <c r="V20" t="n">
-        <v>3336.829561497649</v>
+        <v>2833.15637057588</v>
       </c>
       <c r="W20" t="n">
-        <v>3336.829561497649</v>
+        <v>2489.336507825182</v>
       </c>
       <c r="X20" t="n">
-        <v>3327.353247304749</v>
+        <v>2489.336507825182</v>
       </c>
       <c r="Y20" t="n">
-        <v>2930.86253822535</v>
+        <v>2092.845798745783</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>319.61384466942</v>
       </c>
       <c r="G21" t="n">
-        <v>199.6619770867868</v>
+        <v>199.6619770867867</v>
       </c>
       <c r="H21" t="n">
         <v>112.4071337610546</v>
       </c>
       <c r="I21" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="J21" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="K21" t="n">
-        <v>66.73659122995298</v>
+        <v>403.5604616506785</v>
       </c>
       <c r="L21" t="n">
-        <v>66.73659122995298</v>
+        <v>910.0990678349328</v>
       </c>
       <c r="M21" t="n">
-        <v>472.370931280562</v>
+        <v>910.0990678349328</v>
       </c>
       <c r="N21" t="n">
         <v>1155.666274078557</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="C22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="D22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="E22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="F22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="G22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="H22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="I22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="J22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="K22" t="n">
-        <v>2445.859274747529</v>
+        <v>158.8770705324135</v>
       </c>
       <c r="L22" t="n">
-        <v>2623.174327469564</v>
+        <v>336.1921232544489</v>
       </c>
       <c r="M22" t="n">
-        <v>2823.370183644573</v>
+        <v>536.3879794294578</v>
       </c>
       <c r="N22" t="n">
-        <v>3020.133482863158</v>
+        <v>733.1512786480431</v>
       </c>
       <c r="O22" t="n">
-        <v>3195.375726666782</v>
+        <v>908.3935224516667</v>
       </c>
       <c r="P22" t="n">
-        <v>3325.979869729219</v>
+        <v>1038.997665514104</v>
       </c>
       <c r="Q22" t="n">
-        <v>3336.829561497649</v>
+        <v>1049.847357282534</v>
       </c>
       <c r="R22" t="n">
-        <v>3336.829561497649</v>
+        <v>1049.847357282534</v>
       </c>
       <c r="S22" t="n">
-        <v>3135.590679729865</v>
+        <v>1049.847357282534</v>
       </c>
       <c r="T22" t="n">
-        <v>2900.258318019822</v>
+        <v>869.5811708042525</v>
       </c>
       <c r="U22" t="n">
-        <v>2619.698140624244</v>
+        <v>584.1473155157923</v>
       </c>
       <c r="V22" t="n">
-        <v>2353.718795445068</v>
+        <v>584.1473155157923</v>
       </c>
       <c r="W22" t="n">
-        <v>2353.718795445068</v>
+        <v>300.8169134469699</v>
       </c>
       <c r="X22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
       <c r="Y22" t="n">
-        <v>2353.718795445068</v>
+        <v>66.73659122995301</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1684.030229611419</v>
+        <v>2135.066198310892</v>
       </c>
       <c r="C23" t="n">
-        <v>1290.854728114349</v>
+        <v>1741.890696813823</v>
       </c>
       <c r="D23" t="n">
-        <v>905.4135993310172</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E23" t="n">
-        <v>905.4135993310172</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F23" t="n">
-        <v>488.5191608609949</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G23" t="n">
-        <v>75.96123154786345</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H23" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612517</v>
@@ -6001,40 +6001,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O23" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585818</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U23" t="n">
-        <v>3168.773180116325</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="V23" t="n">
-        <v>2870.468289469158</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="W23" t="n">
-        <v>2870.468289469158</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="X23" t="n">
-        <v>2481.015684402215</v>
+        <v>2932.051653101688</v>
       </c>
       <c r="Y23" t="n">
-        <v>2084.524975322816</v>
+        <v>2535.560944022289</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L24" t="n">
-        <v>313.8895596758443</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1734.412875421585</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2200.59993609127</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3057.538791923976</v>
+        <v>231.520043688661</v>
       </c>
       <c r="C25" t="n">
-        <v>3057.538791923976</v>
+        <v>231.520043688661</v>
       </c>
       <c r="D25" t="n">
-        <v>3057.538791923976</v>
+        <v>231.520043688661</v>
       </c>
       <c r="E25" t="n">
-        <v>3057.538791923976</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F25" t="n">
-        <v>3057.538791923976</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G25" t="n">
-        <v>2941.004294140362</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H25" t="n">
-        <v>2787.937884177175</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I25" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S25" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T25" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U25" t="n">
-        <v>3798.061577393172</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V25" t="n">
-        <v>3798.061577393172</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W25" t="n">
-        <v>3514.73117532435</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X25" t="n">
-        <v>3280.650853107333</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="Y25" t="n">
-        <v>3057.538791923976</v>
+        <v>387.4838144505536</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2519.522183495031</v>
+        <v>1399.297742117297</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.346681997961</v>
+        <v>1006.122240620228</v>
       </c>
       <c r="D26" t="n">
-        <v>1740.905553214629</v>
+        <v>1006.122240620228</v>
       </c>
       <c r="E26" t="n">
-        <v>1338.322028331173</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="F26" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G26" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H26" t="n">
         <v>190.9807864236407</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K26" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L26" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M26" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N26" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O26" t="n">
         <v>3115.769891361771</v>
@@ -6253,25 +6253,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340869</v>
+        <v>3775.398965527772</v>
       </c>
       <c r="T26" t="n">
-        <v>3645.330499340869</v>
+        <v>3554.545989772722</v>
       </c>
       <c r="U26" t="n">
-        <v>3645.330499340869</v>
+        <v>3298.84164630323</v>
       </c>
       <c r="V26" t="n">
-        <v>3645.330499340869</v>
+        <v>2956.734837006749</v>
       </c>
       <c r="W26" t="n">
-        <v>3274.331464309156</v>
+        <v>2585.735801975036</v>
       </c>
       <c r="X26" t="n">
-        <v>3274.331464309156</v>
+        <v>2196.283196908093</v>
       </c>
       <c r="Y26" t="n">
-        <v>2920.016929206427</v>
+        <v>1799.792487828694</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L27" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N27" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>1734.412875421585</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2200.59993609127</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.96123154786346</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="C28" t="n">
-        <v>75.96123154786346</v>
+        <v>231.5943446453487</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
         <v>188.6896288950475</v>
@@ -6411,25 +6411,25 @@
         <v>1222.217555045146</v>
       </c>
       <c r="S28" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T28" t="n">
-        <v>789.5697207730121</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U28" t="n">
-        <v>504.1457274264181</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V28" t="n">
-        <v>238.1663822472423</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W28" t="n">
-        <v>75.96123154786346</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X28" t="n">
-        <v>75.96123154786346</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.96123154786346</v>
+        <v>387.4838144505536</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1269.229275930393</v>
+        <v>1280.880323684673</v>
       </c>
       <c r="C29" t="n">
-        <v>876.0537744333237</v>
+        <v>1280.880323684673</v>
       </c>
       <c r="D29" t="n">
-        <v>508.8696605480199</v>
+        <v>895.4391949013411</v>
       </c>
       <c r="E29" t="n">
-        <v>508.8696605480199</v>
+        <v>492.8556700178857</v>
       </c>
       <c r="F29" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G29" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612517</v>
@@ -6481,7 +6481,7 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q29" t="n">
         <v>3798.061577393173</v>
@@ -6490,25 +6490,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585819</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116326</v>
+        <v>3180.424227870607</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819845</v>
+        <v>2838.317418574125</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788132</v>
+        <v>2467.318383542412</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721189</v>
+        <v>2077.865778475469</v>
       </c>
       <c r="Y29" t="n">
-        <v>1669.72402164179</v>
+        <v>1681.37506939607</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K30" t="n">
-        <v>78.58869771899174</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L30" t="n">
-        <v>631.0211665505475</v>
+        <v>999.3489583586883</v>
       </c>
       <c r="M30" t="n">
-        <v>1339.156636842887</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N30" t="n">
-        <v>2077.425419922113</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O30" t="n">
-        <v>2077.425419922113</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
         <v>2077.425419922113</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.4642167637957</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="C31" t="n">
-        <v>126.4642167637957</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="D31" t="n">
-        <v>126.4642167637957</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="E31" t="n">
-        <v>126.4642167637957</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="F31" t="n">
-        <v>126.4642167637957</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="G31" t="n">
-        <v>126.4642167637957</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H31" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I31" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K31" t="n">
         <v>188.6896288950475</v>
@@ -6645,28 +6645,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S31" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T31" t="n">
-        <v>677.8675552895655</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U31" t="n">
-        <v>392.4435619429715</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V31" t="n">
-        <v>126.4642167637957</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W31" t="n">
-        <v>126.4642167637957</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X31" t="n">
-        <v>126.4642167637957</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.4642167637957</v>
+        <v>387.4838144505536</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2011.327127122184</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C32" t="n">
-        <v>2011.327127122184</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D32" t="n">
-        <v>1625.885998338852</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E32" t="n">
-        <v>1223.302473455396</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F32" t="n">
-        <v>806.4080349853741</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G32" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H32" t="n">
         <v>75.96123154786345</v>
@@ -6700,25 +6700,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130491</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N32" t="n">
         <v>2575.851817818621</v>
       </c>
       <c r="O32" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.76989136177</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q32" t="n">
         <v>3798.061577393173</v>
@@ -6736,16 +6736,16 @@
         <v>3168.773180116326</v>
       </c>
       <c r="V32" t="n">
-        <v>2826.666370819845</v>
+        <v>2876.561105273214</v>
       </c>
       <c r="W32" t="n">
-        <v>2455.667335788132</v>
+        <v>2876.561105273214</v>
       </c>
       <c r="X32" t="n">
-        <v>2411.821872833581</v>
+        <v>2487.108500206271</v>
       </c>
       <c r="Y32" t="n">
-        <v>2411.821872833581</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794192</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671759</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N33" t="n">
-        <v>2074.797953750985</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P33" t="n">
         <v>2352.277072610002</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.3582747201569</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C34" t="n">
-        <v>387.1531567861462</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D34" t="n">
-        <v>231.520043688661</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E34" t="n">
         <v>75.96123154786345</v>
@@ -6861,16 +6861,16 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K34" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L34" t="n">
-        <v>392.3501285422321</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M34" t="n">
-        <v>620.3235645955796</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N34" t="n">
-        <v>844.2039549289403</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O34" t="n">
         <v>1044.49322140544</v>
@@ -6879,31 +6879,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q34" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R34" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S34" t="n">
-        <v>1222.217555045146</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T34" t="n">
-        <v>1222.217555045146</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U34" t="n">
-        <v>936.7935616985517</v>
+        <v>738.7055703569567</v>
       </c>
       <c r="V34" t="n">
-        <v>670.8142165193759</v>
+        <v>472.726225177781</v>
       </c>
       <c r="W34" t="n">
-        <v>670.8142165193759</v>
+        <v>189.3958231089586</v>
       </c>
       <c r="X34" t="n">
-        <v>670.8142165193759</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y34" t="n">
-        <v>670.8142165193759</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1740.905553214629</v>
+        <v>2029.680916029049</v>
       </c>
       <c r="C35" t="n">
-        <v>1740.905553214629</v>
+        <v>2029.680916029049</v>
       </c>
       <c r="D35" t="n">
-        <v>1740.905553214629</v>
+        <v>1644.239787245717</v>
       </c>
       <c r="E35" t="n">
-        <v>1338.322028331173</v>
+        <v>1241.656262362261</v>
       </c>
       <c r="F35" t="n">
-        <v>921.4275898611513</v>
+        <v>824.7618238922388</v>
       </c>
       <c r="G35" t="n">
-        <v>508.8696605480199</v>
+        <v>412.2038945791073</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>94.31502045472814</v>
       </c>
       <c r="I35" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130496</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L35" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612518</v>
       </c>
       <c r="M35" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O35" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
         <v>3645.330499340868</v>
@@ -6970,19 +6970,19 @@
         <v>3424.477523585818</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116325</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819844</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="W35" t="n">
-        <v>2455.667335788131</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="X35" t="n">
-        <v>2141.400298926026</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="Y35" t="n">
-        <v>2141.400298926026</v>
+        <v>2430.175661740446</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>95.86737287901121</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786345</v>
+        <v>466.8226308582801</v>
       </c>
       <c r="L36" t="n">
-        <v>628.3937003794192</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.529170671759</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N36" t="n">
-        <v>2074.797953750985</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7098,7 +7098,7 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K37" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L37" t="n">
         <v>392.350128542232</v>
@@ -7125,19 +7125,19 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T37" t="n">
-        <v>1144.775294359473</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U37" t="n">
-        <v>859.3513010128785</v>
+        <v>848.3830399792182</v>
       </c>
       <c r="V37" t="n">
-        <v>593.3719558337027</v>
+        <v>582.4036948000424</v>
       </c>
       <c r="W37" t="n">
-        <v>310.0415537648803</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="X37" t="n">
-        <v>75.96123154786345</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="Y37" t="n">
         <v>75.96123154786345</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2458.892439483129</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C38" t="n">
-        <v>2065.716937986059</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D38" t="n">
-        <v>1740.905553214629</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E38" t="n">
-        <v>1338.322028331173</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F38" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G38" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H38" t="n">
         <v>190.9807864236407</v>
@@ -7174,10 +7174,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L38" t="n">
         <v>1292.177839612517</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393172</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="V38" t="n">
-        <v>3645.330499340868</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W38" t="n">
-        <v>3645.330499340868</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X38" t="n">
-        <v>3255.877894273925</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y38" t="n">
-        <v>2859.387185194526</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L39" t="n">
-        <v>313.8895596758445</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M39" t="n">
-        <v>1022.025029968184</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3155.661175301497</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C40" t="n">
-        <v>2985.456057367486</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D40" t="n">
-        <v>2829.822944270001</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E40" t="n">
-        <v>2819.78800358552</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F40" t="n">
-        <v>2819.78800358552</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K40" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L40" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M40" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N40" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O40" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P40" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q40" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R40" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S40" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T40" t="n">
-        <v>3798.061577393172</v>
+        <v>1144.775294359473</v>
       </c>
       <c r="U40" t="n">
-        <v>3798.061577393172</v>
+        <v>859.3513010128785</v>
       </c>
       <c r="V40" t="n">
-        <v>3798.061577393172</v>
+        <v>593.3719558337027</v>
       </c>
       <c r="W40" t="n">
-        <v>3798.061577393172</v>
+        <v>310.0415537648803</v>
       </c>
       <c r="X40" t="n">
-        <v>3563.981255176155</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y40" t="n">
-        <v>3340.869193992799</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2240.624482503721</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.346681997961</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D41" t="n">
-        <v>1740.905553214629</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E41" t="n">
-        <v>1338.322028331173</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F41" t="n">
-        <v>921.4275898611513</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G41" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H41" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I41" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130491</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L41" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612518</v>
       </c>
       <c r="M41" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O41" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U41" t="n">
-        <v>3798.061577393172</v>
+        <v>3615.158623649095</v>
       </c>
       <c r="V41" t="n">
-        <v>3798.061577393172</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W41" t="n">
-        <v>3427.06254236146</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X41" t="n">
-        <v>3037.609937294516</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y41" t="n">
-        <v>2641.119228215117</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J42" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K42" t="n">
-        <v>589.997147027437</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L42" t="n">
-        <v>1142.429615858993</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M42" t="n">
-        <v>1142.429615858993</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N42" t="n">
-        <v>1880.698398938219</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O42" t="n">
-        <v>1880.698398938219</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.885459607904</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7572,7 +7572,7 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K43" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L43" t="n">
         <v>392.350128542232</v>
@@ -7605,7 +7605,7 @@
         <v>702.2337187680125</v>
       </c>
       <c r="V43" t="n">
-        <v>593.3719558337027</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W43" t="n">
         <v>310.0415537648803</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2066.214730721189</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C44" t="n">
-        <v>1713.78875268483</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D44" t="n">
-        <v>1328.347623901498</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E44" t="n">
-        <v>925.7640990180421</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F44" t="n">
-        <v>508.8696605480199</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G44" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H44" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I44" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874838</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130499</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L44" t="n">
         <v>1292.177839612517</v>
@@ -7660,13 +7660,13 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O44" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q44" t="n">
         <v>3798.061577393173</v>
@@ -7675,25 +7675,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S44" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T44" t="n">
-        <v>3424.477523585819</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U44" t="n">
-        <v>3168.773180116326</v>
+        <v>3615.158623649095</v>
       </c>
       <c r="V44" t="n">
-        <v>2826.666370819845</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.667335788132</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X44" t="n">
-        <v>2066.214730721189</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y44" t="n">
-        <v>2066.214730721189</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K45" t="n">
-        <v>75.96123154786346</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L45" t="n">
-        <v>628.3937003794192</v>
+        <v>999.3489583586883</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.529170671759</v>
+        <v>999.3489583586883</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.529170671759</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O45" t="n">
-        <v>1928.512430234351</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>196.2707762293557</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C46" t="n">
-        <v>196.2707762293557</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D46" t="n">
-        <v>196.2707762293557</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E46" t="n">
-        <v>196.2707762293557</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F46" t="n">
-        <v>196.2707762293557</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G46" t="n">
-        <v>196.2707762293557</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H46" t="n">
-        <v>196.2707762293557</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I46" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J46" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K46" t="n">
         <v>188.6896288950475</v>
@@ -7836,22 +7836,22 @@
         <v>1222.217555045146</v>
       </c>
       <c r="T46" t="n">
-        <v>1222.217555045146</v>
+        <v>1144.775294359473</v>
       </c>
       <c r="U46" t="n">
-        <v>936.7935616985517</v>
+        <v>859.3513010128785</v>
       </c>
       <c r="V46" t="n">
-        <v>936.7935616985517</v>
+        <v>593.3719558337027</v>
       </c>
       <c r="W46" t="n">
-        <v>653.4631596297293</v>
+        <v>310.0415537648803</v>
       </c>
       <c r="X46" t="n">
-        <v>419.3828374127123</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y46" t="n">
-        <v>196.2707762293557</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>447.5171231095479</v>
+        <v>108.8653421701423</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N6" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8774,22 +8774,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9011,7 +9011,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9020,13 +9020,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>407.1386544003163</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>72.34750641868324</v>
+        <v>72.34750641868317</v>
       </c>
       <c r="K18" t="n">
-        <v>72.33963800151621</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>170.3238063465823</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>531.8108882816792</v>
+        <v>67.26026692161587</v>
       </c>
       <c r="P18" t="n">
-        <v>66.67572130591989</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.34618391493275</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>72.34750641868322</v>
+        <v>72.34750641868317</v>
       </c>
       <c r="K21" t="n">
-        <v>72.33963800151618</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>66.85578091152318</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>475.0401446964801</v>
+        <v>65.30848807970324</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>305.6244710927402</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995591</v>
+        <v>203.3018656667558</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O27" t="n">
-        <v>296.7442678660666</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995591</v>
+        <v>203.3018656667558</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406337</v>
       </c>
       <c r="K30" t="n">
-        <v>40.51749518594522</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>31.31875908515946</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O30" t="n">
-        <v>16.46232962463525</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406338</v>
+        <v>52.1760984640634</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>308.9466910931282</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573996</v>
       </c>
       <c r="O33" t="n">
-        <v>296.7442678660666</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995591</v>
+        <v>50.09263685995593</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>72.28331192986923</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935396</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573996</v>
       </c>
       <c r="O36" t="n">
-        <v>296.744267866067</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>52.1760984640634</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935396</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392737981</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>52.1760984640634</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>11.21154561935391</v>
+        <v>11.21154561935396</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392737981</v>
       </c>
       <c r="O42" t="n">
-        <v>16.46232962463526</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.53871059944929</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406337</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461573954</v>
+        <v>22.15527392737952</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>453.9509915085703</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85.22685691943755</v>
+        <v>75.34799621285569</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -22603,16 +22603,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -22767,13 +22767,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22792,16 +22792,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.05723567423007</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>27.09856833432946</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22992,10 +22992,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>87.62118754448949</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23029,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>171.8055021304212</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23071,13 +23071,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>154.8494418714224</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,13 +23269,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>311.5505874356224</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>70.26927520960629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>82.07985683331707</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.5574566382958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>144.1453976475166</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23740,19 +23740,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>14.47892897906439</v>
       </c>
       <c r="G17" t="n">
-        <v>408.8313869843473</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>318.7966226942565</v>
       </c>
       <c r="I17" t="n">
-        <v>114.3173010481454</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>25.06600571167714</v>
+        <v>25.06600571167706</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>160.296822096844</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23910,10 +23910,10 @@
         <v>153.1271674224727</v>
       </c>
       <c r="I19" t="n">
-        <v>129.0690572509243</v>
+        <v>129.0690572509242</v>
       </c>
       <c r="J19" t="n">
-        <v>23.7399849490234</v>
+        <v>23.73998494902336</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>118.6333759660428</v>
       </c>
       <c r="S19" t="n">
-        <v>8.142348000996463</v>
+        <v>199.2264929501066</v>
       </c>
       <c r="T19" t="n">
-        <v>232.9790380929424</v>
+        <v>86.09554621198095</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5795167355755</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>318.7966226942565</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>129.2532318950163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>25.06600571167712</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>160.296822096844</v>
       </c>
       <c r="T20" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.179222991945</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>26.9073805582043</v>
       </c>
       <c r="X20" t="n">
-        <v>376.176527965303</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24147,10 +24147,10 @@
         <v>153.1271674224727</v>
       </c>
       <c r="I22" t="n">
-        <v>129.0690572509243</v>
+        <v>129.0690572509242</v>
       </c>
       <c r="J22" t="n">
-        <v>23.73998494902339</v>
+        <v>23.73998494902336</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>118.6333759660429</v>
+        <v>118.6333759660428</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>199.2264929501066</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>54.51551347944371</v>
       </c>
       <c r="U22" t="n">
-        <v>4.824941113953059</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24211,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>380.6114253322972</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>43.36389946282128</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>28.95180545011462</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>50.93376938695447</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>128.767781525035</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.75441223690342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>14.17249164751789</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24651,10 +24651,10 @@
         <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>119.9139988557491</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>18.0744447490481</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>11.53453727673758</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>9.431310982624382</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.77334861469859</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>49.39578710883586</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>342.1510706912679</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.03455612316148</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25098,7 +25098,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>232.2142445012334</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>119.4392733493625</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25159,7 +25159,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>95.6991083092234</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>74.43371252278911</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25335,7 +25335,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>155.5464064224173</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>144.6878279990935</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>60.02344657178293</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
         <v>218.6444459974996</v>
@@ -25450,10 +25450,10 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>300.0844798017785</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>144.0686327417531</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>155.5464064224173</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>276.1087239813969</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>72.07337582816015</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>155.5464064224173</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>40.3420282261032</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>72.07337582816015</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26043,7 +26043,7 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>4.579762906942229</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
         <v>11.085091836852</v>
@@ -26076,13 +26076,13 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>155.5464064224171</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>662103.9860199766</v>
+        <v>662103.9860199767</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662103.9860199768</v>
+        <v>662103.9860199767</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>688944.1965753656</v>
+        <v>688944.1965753654</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>688944.1965753654</v>
+        <v>688944.1965753655</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742564.8233642991</v>
+        <v>742564.8233642994</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742564.8233642995</v>
+        <v>742564.8233642996</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>742564.8233642996</v>
+        <v>742564.8233642995</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>742564.8233642996</v>
+        <v>742564.8233642995</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>742564.8233642993</v>
+        <v>742564.8233642994</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>742564.8233642994</v>
+        <v>742564.8233642995</v>
       </c>
     </row>
     <row r="16">
@@ -26328,31 +26328,31 @@
         <v>267167.6173043599</v>
       </c>
       <c r="G2" t="n">
-        <v>278914.6091109601</v>
+        <v>278914.6091109603</v>
       </c>
       <c r="H2" t="n">
-        <v>278914.60911096</v>
+        <v>278914.6091109604</v>
       </c>
       <c r="I2" t="n">
-        <v>302382.4229067774</v>
+        <v>302382.4229067775</v>
       </c>
       <c r="J2" t="n">
-        <v>302382.4229067776</v>
+        <v>302382.4229067775</v>
       </c>
       <c r="K2" t="n">
         <v>302382.4229067775</v>
       </c>
       <c r="L2" t="n">
+        <v>302382.4229067776</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302382.4229067776</v>
+      </c>
+      <c r="N2" t="n">
+        <v>302382.4229067774</v>
+      </c>
+      <c r="O2" t="n">
         <v>302382.4229067775</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302382.4229067773</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302382.4229067773</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302382.4229067776</v>
       </c>
       <c r="P2" t="n">
         <v>302382.4229067775</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54449.60099636384</v>
+        <v>54449.60099636416</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105381.0203487486</v>
+        <v>105381.0203487485</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.7131126951</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13889.96518695389</v>
+        <v>13889.96518695397</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>39261.69958392654</v>
       </c>
       <c r="C4" t="n">
-        <v>39261.69958392654</v>
+        <v>39261.69958392653</v>
       </c>
       <c r="D4" t="n">
         <v>39261.69958392654</v>
@@ -26484,19 +26484,19 @@
         <v>47210.53705512779</v>
       </c>
       <c r="G5" t="n">
-        <v>51802.9546935486</v>
+        <v>51802.95469354862</v>
       </c>
       <c r="H5" t="n">
-        <v>51802.95469354861</v>
+        <v>51802.95469354863</v>
       </c>
       <c r="I5" t="n">
+        <v>60977.55903357455</v>
+      </c>
+      <c r="J5" t="n">
         <v>60977.55903357454</v>
       </c>
-      <c r="J5" t="n">
-        <v>60977.55903357455</v>
-      </c>
       <c r="K5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="L5" t="n">
         <v>60977.55903357454</v>
@@ -26511,7 +26511,7 @@
         <v>60977.55903357454</v>
       </c>
       <c r="P5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-113151.5747545233</v>
+        <v>-113682.6697863884</v>
       </c>
       <c r="C6" t="n">
-        <v>147067.7806653056</v>
+        <v>146536.6856334404</v>
       </c>
       <c r="D6" t="n">
-        <v>147067.7806653056</v>
+        <v>146536.6856334404</v>
       </c>
       <c r="E6" t="n">
-        <v>180695.3806653056</v>
+        <v>180164.2856334404</v>
       </c>
       <c r="F6" t="n">
-        <v>180695.3806653055</v>
+        <v>180164.2856334404</v>
       </c>
       <c r="G6" t="n">
-        <v>133940.433913951</v>
+        <v>133465.2769383077</v>
       </c>
       <c r="H6" t="n">
-        <v>188390.0349103147</v>
+        <v>187914.8779346719</v>
       </c>
       <c r="I6" t="n">
-        <v>98381.18098664342</v>
+        <v>98017.77550526615</v>
       </c>
       <c r="J6" t="n">
-        <v>598.4882226972259</v>
+        <v>235.0827413196893</v>
       </c>
       <c r="K6" t="n">
-        <v>203762.2013353922</v>
+        <v>203398.7958540146</v>
       </c>
       <c r="L6" t="n">
-        <v>203762.2013353922</v>
+        <v>203398.7958540148</v>
       </c>
       <c r="M6" t="n">
-        <v>203762.201335392</v>
+        <v>203398.7958540148</v>
       </c>
       <c r="N6" t="n">
-        <v>203762.201335392</v>
+        <v>203398.7958540145</v>
       </c>
       <c r="O6" t="n">
-        <v>189872.2361484384</v>
+        <v>189508.8306670607</v>
       </c>
       <c r="P6" t="n">
-        <v>203762.2013353921</v>
+        <v>203398.7958540146</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671285</v>
+        <v>49.68556691671319</v>
       </c>
       <c r="H3" t="n">
-        <v>49.68556691671294</v>
+        <v>49.68556691671319</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26767,16 +26767,16 @@
         <v>148.9460117980881</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
       <c r="P3" t="n">
         <v>148.9460117980881</v>
@@ -26804,34 +26804,34 @@
         <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>834.2073903744122</v>
+        <v>834.2073903744124</v>
       </c>
       <c r="H4" t="n">
-        <v>834.2073903744123</v>
+        <v>834.2073903744125</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="L4" t="n">
         <v>949.5153943482932</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="N4" t="n">
         <v>949.5153943482931</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671285</v>
+        <v>49.68556691671318</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99.26044488137516</v>
+        <v>99.26044488137495</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.71829407296825</v>
+        <v>57.71829407296851</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>115.3080039738808</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296827</v>
+        <v>57.71829407296863</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296825</v>
+        <v>57.71829407296851</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1997409725294987</v>
+        <v>0.1997409725295001</v>
       </c>
       <c r="H17" t="n">
-        <v>2.04559723491773</v>
+        <v>2.045597234917743</v>
       </c>
       <c r="I17" t="n">
-        <v>7.700513843443508</v>
+        <v>7.700513843443559</v>
       </c>
       <c r="J17" t="n">
-        <v>16.95276536722556</v>
+        <v>16.95276536722567</v>
       </c>
       <c r="K17" t="n">
-        <v>25.40780073439925</v>
+        <v>25.40780073439942</v>
       </c>
       <c r="L17" t="n">
-        <v>31.5206235224489</v>
+        <v>31.52062352244911</v>
       </c>
       <c r="M17" t="n">
-        <v>35.07276704267037</v>
+        <v>35.07276704267061</v>
       </c>
       <c r="N17" t="n">
-        <v>35.64028108086981</v>
+        <v>35.64028108087005</v>
       </c>
       <c r="O17" t="n">
-        <v>33.65410678527961</v>
+        <v>33.65410678527984</v>
       </c>
       <c r="P17" t="n">
-        <v>28.7230015259576</v>
+        <v>28.7230015259578</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.56977794724492</v>
+        <v>21.56977794724507</v>
       </c>
       <c r="R17" t="n">
-        <v>12.54697886565614</v>
+        <v>12.54697886565622</v>
       </c>
       <c r="S17" t="n">
-        <v>4.551597411515957</v>
+        <v>4.551597411515988</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8743661072478812</v>
+        <v>0.8743661072478871</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0159792778023599</v>
+        <v>0.01597927780236</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1068708420472692</v>
+        <v>0.1068708420472699</v>
       </c>
       <c r="H18" t="n">
-        <v>1.032147342930205</v>
+        <v>1.032147342930212</v>
       </c>
       <c r="I18" t="n">
-        <v>3.679544342416943</v>
+        <v>3.679544342416968</v>
       </c>
       <c r="J18" t="n">
-        <v>10.09695091465011</v>
+        <v>10.09695091465018</v>
       </c>
       <c r="K18" t="n">
-        <v>17.25729733181714</v>
+        <v>17.25729733181726</v>
       </c>
       <c r="L18" t="n">
-        <v>23.204565945395</v>
+        <v>23.20456594539516</v>
       </c>
       <c r="M18" t="n">
-        <v>27.0786339696085</v>
+        <v>27.07863396960868</v>
       </c>
       <c r="N18" t="n">
-        <v>27.79532483579392</v>
+        <v>27.79532483579411</v>
       </c>
       <c r="O18" t="n">
-        <v>25.42729196727285</v>
+        <v>25.42729196727302</v>
       </c>
       <c r="P18" t="n">
-        <v>20.40764351339476</v>
+        <v>20.40764351339489</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.64196924098124</v>
+        <v>13.64196924098133</v>
       </c>
       <c r="R18" t="n">
-        <v>6.635366842197994</v>
+        <v>6.635366842198039</v>
       </c>
       <c r="S18" t="n">
-        <v>1.985079017851687</v>
+        <v>1.9850790178517</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4307644905326329</v>
+        <v>0.4307644905326359</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007030976450478237</v>
+        <v>0.007030976450478284</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0895969239481707</v>
+        <v>0.0895969239481713</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7965981056482819</v>
+        <v>0.7965981056482873</v>
       </c>
       <c r="I19" t="n">
-        <v>2.694423858368626</v>
+        <v>2.694423858368643</v>
       </c>
       <c r="J19" t="n">
-        <v>6.334502523135669</v>
+        <v>6.334502523135711</v>
       </c>
       <c r="K19" t="n">
-        <v>10.40953352779656</v>
+        <v>10.40953352779663</v>
       </c>
       <c r="L19" t="n">
-        <v>13.32061903862167</v>
+        <v>13.32061903862176</v>
       </c>
       <c r="M19" t="n">
-        <v>14.04472508762098</v>
+        <v>14.04472508762107</v>
       </c>
       <c r="N19" t="n">
-        <v>13.71077291654144</v>
+        <v>13.71077291654153</v>
       </c>
       <c r="O19" t="n">
-        <v>12.66411794132872</v>
+        <v>12.6641179413288</v>
       </c>
       <c r="P19" t="n">
-        <v>10.83634069278602</v>
+        <v>10.8363406927861</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.502520604423641</v>
+        <v>7.50252060442369</v>
       </c>
       <c r="R19" t="n">
-        <v>4.028603507705929</v>
+        <v>4.028603507705956</v>
       </c>
       <c r="S19" t="n">
-        <v>1.561430029169483</v>
+        <v>1.561430029169494</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3828232205058202</v>
+        <v>0.3828232205058227</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004887104942627498</v>
+        <v>0.004887104942627531</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1997409725294991</v>
+        <v>0.1997409725295001</v>
       </c>
       <c r="H20" t="n">
-        <v>2.045597234917733</v>
+        <v>2.045597234917743</v>
       </c>
       <c r="I20" t="n">
-        <v>7.700513843443522</v>
+        <v>7.700513843443559</v>
       </c>
       <c r="J20" t="n">
-        <v>16.95276536722559</v>
+        <v>16.95276536722567</v>
       </c>
       <c r="K20" t="n">
-        <v>25.4078007343993</v>
+        <v>25.40780073439942</v>
       </c>
       <c r="L20" t="n">
-        <v>31.52062352244896</v>
+        <v>31.52062352244911</v>
       </c>
       <c r="M20" t="n">
-        <v>35.07276704267043</v>
+        <v>35.07276704267061</v>
       </c>
       <c r="N20" t="n">
-        <v>35.64028108086988</v>
+        <v>35.64028108087005</v>
       </c>
       <c r="O20" t="n">
-        <v>33.65410678527967</v>
+        <v>33.65410678527984</v>
       </c>
       <c r="P20" t="n">
-        <v>28.72300152595766</v>
+        <v>28.7230015259578</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.56977794724496</v>
+        <v>21.56977794724507</v>
       </c>
       <c r="R20" t="n">
-        <v>12.54697886565616</v>
+        <v>12.54697886565622</v>
       </c>
       <c r="S20" t="n">
-        <v>4.551597411515965</v>
+        <v>4.551597411515988</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8743661072478829</v>
+        <v>0.8743661072478871</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01597927780235993</v>
+        <v>0.01597927780236</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1068708420472693</v>
+        <v>0.1068708420472699</v>
       </c>
       <c r="H21" t="n">
-        <v>1.032147342930207</v>
+        <v>1.032147342930212</v>
       </c>
       <c r="I21" t="n">
-        <v>3.67954434241695</v>
+        <v>3.679544342416968</v>
       </c>
       <c r="J21" t="n">
-        <v>10.09695091465013</v>
+        <v>10.09695091465018</v>
       </c>
       <c r="K21" t="n">
-        <v>17.25729733181717</v>
+        <v>17.25729733181726</v>
       </c>
       <c r="L21" t="n">
-        <v>23.20456594539504</v>
+        <v>23.20456594539516</v>
       </c>
       <c r="M21" t="n">
-        <v>27.07863396960855</v>
+        <v>27.07863396960868</v>
       </c>
       <c r="N21" t="n">
-        <v>27.79532483579397</v>
+        <v>27.79532483579411</v>
       </c>
       <c r="O21" t="n">
-        <v>25.4272919672729</v>
+        <v>25.42729196727302</v>
       </c>
       <c r="P21" t="n">
-        <v>20.4076435133948</v>
+        <v>20.40764351339489</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.64196924098126</v>
+        <v>13.64196924098133</v>
       </c>
       <c r="R21" t="n">
-        <v>6.635366842198007</v>
+        <v>6.635366842198039</v>
       </c>
       <c r="S21" t="n">
-        <v>1.98507901785169</v>
+        <v>1.9850790178517</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4307644905326338</v>
+        <v>0.4307644905326359</v>
       </c>
       <c r="U21" t="n">
-        <v>0.00703097645047825</v>
+        <v>0.007030976450478284</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08959692394817087</v>
+        <v>0.0895969239481713</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7965981056482834</v>
+        <v>0.7965981056482873</v>
       </c>
       <c r="I22" t="n">
-        <v>2.69442385836863</v>
+        <v>2.694423858368643</v>
       </c>
       <c r="J22" t="n">
-        <v>6.33450252313568</v>
+        <v>6.334502523135711</v>
       </c>
       <c r="K22" t="n">
-        <v>10.40953352779658</v>
+        <v>10.40953352779663</v>
       </c>
       <c r="L22" t="n">
-        <v>13.3206190386217</v>
+        <v>13.32061903862176</v>
       </c>
       <c r="M22" t="n">
-        <v>14.044725087621</v>
+        <v>14.04472508762107</v>
       </c>
       <c r="N22" t="n">
-        <v>13.71077291654147</v>
+        <v>13.71077291654153</v>
       </c>
       <c r="O22" t="n">
-        <v>12.66411794132874</v>
+        <v>12.6641179413288</v>
       </c>
       <c r="P22" t="n">
-        <v>10.83634069278604</v>
+        <v>10.8363406927861</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.502520604423654</v>
+        <v>7.50252060442369</v>
       </c>
       <c r="R22" t="n">
-        <v>4.028603507705936</v>
+        <v>4.028603507705956</v>
       </c>
       <c r="S22" t="n">
-        <v>1.561430029169486</v>
+        <v>1.561430029169494</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3828232205058209</v>
+        <v>0.3828232205058227</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004887104942627508</v>
+        <v>0.004887104942627531</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H23" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999189</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M23" t="n">
         <v>105.1401664086072</v>
@@ -32727,13 +32727,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S23" t="n">
         <v>13.64465223657863</v>
@@ -32742,7 +32742,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I24" t="n">
         <v>11.03043577938672</v>
@@ -32791,37 +32791,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R24" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H25" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J25" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927759</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P25" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R25" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T25" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H26" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999189</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M26" t="n">
         <v>105.1401664086072</v>
@@ -32964,13 +32964,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S26" t="n">
         <v>13.64465223657863</v>
@@ -32979,7 +32979,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I27" t="n">
         <v>11.03043577938672</v>
@@ -33028,37 +33028,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R27" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H28" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J28" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927759</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P28" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R28" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T28" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H29" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999189</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M29" t="n">
         <v>105.1401664086072</v>
@@ -33201,13 +33201,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S29" t="n">
         <v>13.64465223657863</v>
@@ -33216,7 +33216,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I30" t="n">
         <v>11.03043577938672</v>
@@ -33265,37 +33265,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M30" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R30" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H31" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J31" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K31" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927759</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P31" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R31" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T31" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767353</v>
       </c>
       <c r="H32" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038867</v>
       </c>
       <c r="I32" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999186</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798408</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367549</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086071</v>
       </c>
       <c r="N32" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O32" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119401</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529576</v>
+        <v>86.1050157952957</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733326</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657862</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677912</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013882</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713592</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938672</v>
+        <v>11.03043577938671</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926995</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085101</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287125</v>
+        <v>69.5620029628712</v>
       </c>
       <c r="M33" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995796</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259266</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425364</v>
+        <v>76.2252292642536</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948262</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595806</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650022</v>
       </c>
       <c r="T33" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,46 +33569,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H34" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673366</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K34" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927757</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089232</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322415</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937315</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R34" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097289</v>
       </c>
       <c r="T34" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214776</v>
       </c>
       <c r="U34" t="n">
         <v>0.01465042738997589</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767353</v>
       </c>
       <c r="H35" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038867</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999186</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798408</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367549</v>
       </c>
       <c r="M35" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086071</v>
       </c>
       <c r="N35" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O35" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119401</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529573</v>
+        <v>86.1050157952957</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733326</v>
       </c>
       <c r="S35" t="n">
         <v>13.64465223657862</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677911</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013882</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713592</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I36" t="n">
         <v>11.03043577938671</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926995</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085101</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287123</v>
+        <v>69.5620029628712</v>
       </c>
       <c r="M36" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995796</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259266</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425363</v>
+        <v>76.2252292642536</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948262</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595806</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650022</v>
       </c>
       <c r="T36" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,46 +33806,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673366</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K37" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927757</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089232</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322415</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937315</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R37" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097289</v>
       </c>
       <c r="T37" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214776</v>
       </c>
       <c r="U37" t="n">
         <v>0.01465042738997589</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767353</v>
       </c>
       <c r="H38" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038867</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999186</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798408</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367549</v>
       </c>
       <c r="M38" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086071</v>
       </c>
       <c r="N38" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O38" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119401</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529573</v>
+        <v>86.1050157952957</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733326</v>
       </c>
       <c r="S38" t="n">
         <v>13.64465223657862</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677911</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013882</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713592</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I39" t="n">
         <v>11.03043577938671</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926995</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085101</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287123</v>
+        <v>69.5620029628712</v>
       </c>
       <c r="M39" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995796</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259266</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425363</v>
+        <v>76.2252292642536</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948262</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595806</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650022</v>
       </c>
       <c r="T39" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673366</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927757</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089232</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322415</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937315</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097289</v>
       </c>
       <c r="T40" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214776</v>
       </c>
       <c r="U40" t="n">
         <v>0.01465042738997589</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767353</v>
       </c>
       <c r="H41" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038867</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999186</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798408</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367549</v>
       </c>
       <c r="M41" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086071</v>
       </c>
       <c r="N41" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O41" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119401</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529573</v>
+        <v>86.1050157952957</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733326</v>
       </c>
       <c r="S41" t="n">
         <v>13.64465223657862</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677911</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013882</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713592</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I42" t="n">
         <v>11.03043577938671</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926995</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085101</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287123</v>
+        <v>69.5620029628712</v>
       </c>
       <c r="M42" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995796</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259266</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425363</v>
+        <v>76.2252292642536</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948262</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595806</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650022</v>
       </c>
       <c r="T42" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673366</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927757</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089232</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322415</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937315</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097289</v>
       </c>
       <c r="T43" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214776</v>
       </c>
       <c r="U43" t="n">
         <v>0.01465042738997589</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H44" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999189</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M44" t="n">
         <v>105.1401664086072</v>
@@ -34386,13 +34386,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S44" t="n">
         <v>13.64465223657863</v>
@@ -34401,7 +34401,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I45" t="n">
         <v>11.03043577938672</v>
@@ -34450,37 +34450,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R45" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H46" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J46" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927759</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P46" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R46" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T46" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>362.1450102553813</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N6" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35740,13 +35740,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0636470933146</v>
+        <v>163.0636470933147</v>
       </c>
       <c r="K17" t="n">
-        <v>388.0162411661789</v>
+        <v>388.016241166179</v>
       </c>
       <c r="L17" t="n">
-        <v>529.8239484906599</v>
+        <v>529.8239484906601</v>
       </c>
       <c r="M17" t="n">
-        <v>586.5888276937619</v>
+        <v>586.5888276937621</v>
       </c>
       <c r="N17" t="n">
-        <v>568.782991825781</v>
+        <v>568.7829918257812</v>
       </c>
       <c r="O17" t="n">
-        <v>478.1385521310659</v>
+        <v>478.1385521310661</v>
       </c>
       <c r="P17" t="n">
-        <v>380.4275390325453</v>
+        <v>380.4275390325455</v>
       </c>
       <c r="Q17" t="n">
-        <v>208.282464958304</v>
+        <v>208.2824649583042</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>340.2261317381066</v>
       </c>
       <c r="L18" t="n">
-        <v>511.6551577618731</v>
+        <v>511.6551577618732</v>
       </c>
       <c r="M18" t="n">
-        <v>661.1914113702966</v>
+        <v>105.0153182668791</v>
       </c>
       <c r="N18" t="n">
-        <v>690.1973159575708</v>
+        <v>690.1973159575709</v>
       </c>
       <c r="O18" t="n">
-        <v>464.5506213600632</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>430.1261977723822</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>250.3743849529919</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.07119121460653</v>
+        <v>93.0711912146066</v>
       </c>
       <c r="L19" t="n">
-        <v>179.1061138606416</v>
+        <v>179.1061138606418</v>
       </c>
       <c r="M19" t="n">
-        <v>202.2180365404129</v>
+        <v>202.218036540413</v>
       </c>
       <c r="N19" t="n">
-        <v>198.7508072915002</v>
+        <v>198.7508072915003</v>
       </c>
       <c r="O19" t="n">
-        <v>177.0123674784076</v>
+        <v>177.0123674784077</v>
       </c>
       <c r="P19" t="n">
-        <v>131.9233768307442</v>
+        <v>131.9233768307443</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.95928461457612</v>
+        <v>10.95928461457617</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0636470933146</v>
+        <v>163.0636470933147</v>
       </c>
       <c r="K20" t="n">
-        <v>388.0162411661789</v>
+        <v>388.016241166179</v>
       </c>
       <c r="L20" t="n">
-        <v>529.82394849066</v>
+        <v>529.8239484906601</v>
       </c>
       <c r="M20" t="n">
-        <v>586.5888276937619</v>
+        <v>586.5888276937621</v>
       </c>
       <c r="N20" t="n">
-        <v>568.782991825781</v>
+        <v>568.7829918257812</v>
       </c>
       <c r="O20" t="n">
-        <v>478.138552131066</v>
+        <v>478.1385521310661</v>
       </c>
       <c r="P20" t="n">
-        <v>380.4275390325454</v>
+        <v>380.4275390325455</v>
       </c>
       <c r="Q20" t="n">
-        <v>208.2824649583041</v>
+        <v>208.2824649583042</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>340.2261317381066</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>511.6551577618732</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7316566167768</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>690.1973159575708</v>
+        <v>248.0476830743677</v>
       </c>
       <c r="O21" t="n">
-        <v>547.1649511500821</v>
+        <v>547.1649511500822</v>
       </c>
       <c r="P21" t="n">
-        <v>430.1261977723821</v>
+        <v>430.1261977723822</v>
       </c>
       <c r="Q21" t="n">
         <v>250.3743849529919</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.07119121460656</v>
+        <v>93.0711912146066</v>
       </c>
       <c r="L22" t="n">
-        <v>179.1061138606417</v>
+        <v>179.1061138606418</v>
       </c>
       <c r="M22" t="n">
         <v>202.218036540413</v>
@@ -36293,13 +36293,13 @@
         <v>198.7508072915003</v>
       </c>
       <c r="O22" t="n">
-        <v>177.0123674784076</v>
+        <v>177.0123674784077</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9233768307442</v>
+        <v>131.9233768307443</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.95928461457614</v>
+        <v>10.95928461457617</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>153.2092288067999</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36533,7 +36533,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P25" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q25" t="n">
         <v>25.94761179166379</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>280.2819382414314</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>153.2092288067999</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36770,7 +36770,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P28" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q28" t="n">
         <v>25.94761179166379</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.654006233462905</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>20.10721346580558</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
         <v>277.6279320079687</v>
@@ -37007,7 +37007,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P31" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q31" t="n">
         <v>25.94761179166379</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460808</v>
       </c>
       <c r="K32" t="n">
         <v>438.7752394197637</v>
@@ -37077,19 +37077,19 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M32" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596986</v>
       </c>
       <c r="N32" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666693</v>
       </c>
       <c r="O32" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P32" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018834</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419567</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>297.7351454737743</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>280.2819382414314</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460808</v>
       </c>
       <c r="K35" t="n">
         <v>438.7752394197637</v>
@@ -37314,16 +37314,16 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M35" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596986</v>
       </c>
       <c r="N35" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666693</v>
       </c>
       <c r="O35" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P35" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018834</v>
       </c>
       <c r="Q35" t="n">
         <v>251.3739679419567</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.10721346580582</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>280.2819382414318</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460808</v>
       </c>
       <c r="K38" t="n">
         <v>438.7752394197637</v>
@@ -37551,16 +37551,16 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M38" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596986</v>
       </c>
       <c r="N38" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666693</v>
       </c>
       <c r="O38" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P38" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018834</v>
       </c>
       <c r="Q38" t="n">
         <v>251.3739679419567</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143695</v>
+        <v>20.10721346580581</v>
       </c>
       <c r="O39" t="n">
         <v>597.9628884470627</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460808</v>
       </c>
       <c r="K41" t="n">
         <v>438.7752394197637</v>
@@ -37788,16 +37788,16 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M41" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596986</v>
       </c>
       <c r="N41" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666693</v>
       </c>
       <c r="O41" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P41" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018834</v>
       </c>
       <c r="Q41" t="n">
         <v>251.3739679419567</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>374.7022807871404</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143695</v>
+        <v>20.10721346580581</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P42" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.446073739493372</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>20.10721346580558</v>
       </c>
       <c r="O45" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P45" t="n">
-        <v>428.0450933087383</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38192,7 +38192,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q46" t="n">
         <v>25.94761179166379</v>
